--- a/migrations/Hindi Books.xlsx
+++ b/migrations/Hindi Books.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1583">
   <si>
     <t>B21573</t>
   </si>
@@ -4845,6 +4845,12 @@
   </si>
   <si>
     <t>Storage Location</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Hindi</t>
   </si>
 </sst>
 </file>
@@ -4895,7 +4901,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4918,11 +4924,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4937,6 +4954,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5238,22 +5259,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F576"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1575</v>
       </c>
@@ -5272,8 +5293,11 @@
       <c r="F1" s="7" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="8" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5292,8 +5316,11 @@
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5312,8 +5339,11 @@
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5332,8 +5362,11 @@
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5352,8 +5385,11 @@
       <c r="F5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5372,8 +5408,11 @@
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5392,8 +5431,11 @@
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5412,8 +5454,11 @@
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5432,8 +5477,11 @@
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5452,8 +5500,11 @@
       <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5472,8 +5523,11 @@
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5492,8 +5546,11 @@
       <c r="F12" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5512,8 +5569,11 @@
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5532,8 +5592,11 @@
       <c r="F14" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5552,8 +5615,11 @@
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5572,8 +5638,11 @@
       <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5592,8 +5661,11 @@
       <c r="F17" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5612,8 +5684,11 @@
       <c r="F18" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5632,8 +5707,11 @@
       <c r="F19" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5652,8 +5730,11 @@
       <c r="F20" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5672,8 +5753,11 @@
       <c r="F21" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5692,8 +5776,11 @@
       <c r="F22" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5712,8 +5799,11 @@
       <c r="F23" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5732,8 +5822,11 @@
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5752,8 +5845,11 @@
       <c r="F25" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5772,8 +5868,11 @@
       <c r="F26" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5792,8 +5891,11 @@
       <c r="F27" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5812,8 +5914,11 @@
       <c r="F28" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5832,8 +5937,11 @@
       <c r="F29" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5852,8 +5960,11 @@
       <c r="F30" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5872,8 +5983,11 @@
       <c r="F31" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5892,8 +6006,11 @@
       <c r="F32" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5912,8 +6029,11 @@
       <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5932,8 +6052,11 @@
       <c r="F34" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5952,8 +6075,11 @@
       <c r="F35" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5972,8 +6098,11 @@
       <c r="F36" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5992,8 +6121,11 @@
       <c r="F37" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6012,8 +6144,11 @@
       <c r="F38" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6032,8 +6167,11 @@
       <c r="F39" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6052,8 +6190,11 @@
       <c r="F40" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6072,8 +6213,11 @@
       <c r="F41" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6092,8 +6236,11 @@
       <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6112,8 +6259,11 @@
       <c r="F43" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6132,8 +6282,11 @@
       <c r="F44" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6152,8 +6305,11 @@
       <c r="F45" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6172,8 +6328,11 @@
       <c r="F46" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6192,8 +6351,11 @@
       <c r="F47" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6212,8 +6374,11 @@
       <c r="F48" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6232,8 +6397,11 @@
       <c r="F49" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6252,8 +6420,11 @@
       <c r="F50" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6272,8 +6443,11 @@
       <c r="F51" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G51" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6292,8 +6466,11 @@
       <c r="F52" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G52" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6312,8 +6489,11 @@
       <c r="F53" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G53" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6332,8 +6512,11 @@
       <c r="F54" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G54" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6352,8 +6535,11 @@
       <c r="F55" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G55" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6372,8 +6558,11 @@
       <c r="F56" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G56" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6392,8 +6581,11 @@
       <c r="F57" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G57" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6412,8 +6604,11 @@
       <c r="F58" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G58" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6432,8 +6627,11 @@
       <c r="F59" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G59" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6452,8 +6650,11 @@
       <c r="F60" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G60" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6472,8 +6673,11 @@
       <c r="F61" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G61" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6492,8 +6696,11 @@
       <c r="F62" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G62" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6512,8 +6719,11 @@
       <c r="F63" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G63" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6532,8 +6742,11 @@
       <c r="F64" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G64" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6552,8 +6765,11 @@
       <c r="F65" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G65" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6572,8 +6788,11 @@
       <c r="F66" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G66" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6592,8 +6811,11 @@
       <c r="F67" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G67" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6612,8 +6834,11 @@
       <c r="F68" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G68" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6632,8 +6857,11 @@
       <c r="F69" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G69" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6652,8 +6880,11 @@
       <c r="F70" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G70" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6672,8 +6903,11 @@
       <c r="F71" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G71" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6692,8 +6926,11 @@
       <c r="F72" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G72" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6712,8 +6949,11 @@
       <c r="F73" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G73" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6732,8 +6972,11 @@
       <c r="F74" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G74" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6752,8 +6995,11 @@
       <c r="F75" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G75" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6772,8 +7018,11 @@
       <c r="F76" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G76" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6792,8 +7041,11 @@
       <c r="F77" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G77" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6812,8 +7064,11 @@
       <c r="F78" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G78" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6832,8 +7087,11 @@
       <c r="F79" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G79" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6852,8 +7110,11 @@
       <c r="F80" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6872,8 +7133,11 @@
       <c r="F81" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G81" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6892,8 +7156,11 @@
       <c r="F82" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6912,8 +7179,11 @@
       <c r="F83" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G83" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6932,8 +7202,11 @@
       <c r="F84" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G84" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6952,8 +7225,11 @@
       <c r="F85" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G85" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6972,8 +7248,11 @@
       <c r="F86" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G86" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6992,8 +7271,11 @@
       <c r="F87" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G87" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7012,8 +7294,11 @@
       <c r="F88" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G88" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7032,8 +7317,11 @@
       <c r="F89" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G89" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7052,8 +7340,11 @@
       <c r="F90" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G90" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7072,8 +7363,11 @@
       <c r="F91" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G91" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7092,8 +7386,11 @@
       <c r="F92" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G92" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7112,8 +7409,11 @@
       <c r="F93" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G93" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7132,8 +7432,11 @@
       <c r="F94" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G94" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7152,8 +7455,11 @@
       <c r="F95" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G95" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7172,8 +7478,11 @@
       <c r="F96" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G96" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7192,8 +7501,11 @@
       <c r="F97" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G97" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7212,8 +7524,11 @@
       <c r="F98" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G98" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7232,8 +7547,11 @@
       <c r="F99" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G99" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7252,8 +7570,11 @@
       <c r="F100" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G100" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7272,8 +7593,11 @@
       <c r="F101" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G101" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7292,8 +7616,11 @@
       <c r="F102" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G102" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7312,8 +7639,11 @@
       <c r="F103" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G103" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7332,8 +7662,11 @@
       <c r="F104" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G104" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7352,8 +7685,11 @@
       <c r="F105" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G105" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7372,8 +7708,11 @@
       <c r="F106" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G106" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7392,8 +7731,11 @@
       <c r="F107" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7412,8 +7754,11 @@
       <c r="F108" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G108" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7432,8 +7777,11 @@
       <c r="F109" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G109" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7452,8 +7800,11 @@
       <c r="F110" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G110" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7472,8 +7823,11 @@
       <c r="F111" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G111" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7492,8 +7846,11 @@
       <c r="F112" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G112" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7512,8 +7869,11 @@
       <c r="F113" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G113" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7532,8 +7892,11 @@
       <c r="F114" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G114" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7552,8 +7915,11 @@
       <c r="F115" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G115" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7572,8 +7938,11 @@
       <c r="F116" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G116" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7592,8 +7961,11 @@
       <c r="F117" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G117" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7612,8 +7984,11 @@
       <c r="F118" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G118" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7632,8 +8007,11 @@
       <c r="F119" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G119" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7652,8 +8030,11 @@
       <c r="F120" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G120" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7672,8 +8053,11 @@
       <c r="F121" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G121" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7692,8 +8076,11 @@
       <c r="F122" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G122" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7712,8 +8099,11 @@
       <c r="F123" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G123" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7732,8 +8122,11 @@
       <c r="F124" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G124" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7752,8 +8145,11 @@
       <c r="F125" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G125" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7772,8 +8168,11 @@
       <c r="F126" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G126" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7792,8 +8191,11 @@
       <c r="F127" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G127" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7812,8 +8214,11 @@
       <c r="F128" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G128" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7832,8 +8237,11 @@
       <c r="F129" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="G129" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7852,8 +8260,11 @@
       <c r="F130" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G130" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7872,8 +8283,11 @@
       <c r="F131" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G131" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7892,8 +8306,11 @@
       <c r="F132" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G132" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7912,8 +8329,11 @@
       <c r="F133" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G133" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7932,8 +8352,11 @@
       <c r="F134" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G134" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7952,8 +8375,11 @@
       <c r="F135" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G135" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7972,8 +8398,11 @@
       <c r="F136" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G136" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7992,8 +8421,11 @@
       <c r="F137" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G137" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8012,8 +8444,11 @@
       <c r="F138" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G138" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8032,8 +8467,11 @@
       <c r="F139" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G139" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8052,8 +8490,11 @@
       <c r="F140" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G140" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8072,8 +8513,11 @@
       <c r="F141" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G141" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8092,8 +8536,11 @@
       <c r="F142" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G142" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8112,8 +8559,11 @@
       <c r="F143" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G143" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8132,8 +8582,11 @@
       <c r="F144" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G144" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8152,8 +8605,11 @@
       <c r="F145" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G145" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8172,8 +8628,11 @@
       <c r="F146" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G146" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8192,8 +8651,11 @@
       <c r="F147" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G147" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8212,8 +8674,11 @@
       <c r="F148" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G148" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8232,8 +8697,11 @@
       <c r="F149" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G149" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8252,8 +8720,11 @@
       <c r="F150" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G150" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8272,8 +8743,11 @@
       <c r="F151" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G151" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8292,8 +8766,11 @@
       <c r="F152" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G152" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -8312,8 +8789,11 @@
       <c r="F153" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G153" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -8332,8 +8812,11 @@
       <c r="F154" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G154" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -8352,8 +8835,11 @@
       <c r="F155" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G155" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -8372,8 +8858,11 @@
       <c r="F156" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G156" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8392,8 +8881,11 @@
       <c r="F157" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G157" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8412,8 +8904,11 @@
       <c r="F158" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G158" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8432,8 +8927,11 @@
       <c r="F159" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G159" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8452,8 +8950,11 @@
       <c r="F160" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G160" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8472,8 +8973,11 @@
       <c r="F161" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G161" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8492,8 +8996,11 @@
       <c r="F162" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G162" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8512,8 +9019,11 @@
       <c r="F163" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G163" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8532,8 +9042,11 @@
       <c r="F164" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G164" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8552,8 +9065,11 @@
       <c r="F165" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G165" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8572,8 +9088,11 @@
       <c r="F166" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G166" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8592,8 +9111,11 @@
       <c r="F167" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G167" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8612,8 +9134,11 @@
       <c r="F168" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G168" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8632,8 +9157,11 @@
       <c r="F169" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G169" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8652,8 +9180,11 @@
       <c r="F170" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G170" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8672,8 +9203,11 @@
       <c r="F171" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G171" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8692,8 +9226,11 @@
       <c r="F172" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G172" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8712,8 +9249,11 @@
       <c r="F173" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G173" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8732,8 +9272,11 @@
       <c r="F174" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G174" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8752,8 +9295,11 @@
       <c r="F175" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G175" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8772,8 +9318,11 @@
       <c r="F176" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G176" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8792,8 +9341,11 @@
       <c r="F177" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G177" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8812,8 +9364,11 @@
       <c r="F178" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G178" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -8832,8 +9387,11 @@
       <c r="F179" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G179" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -8852,8 +9410,11 @@
       <c r="F180" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G180" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -8872,8 +9433,11 @@
       <c r="F181" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G181" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -8892,8 +9456,11 @@
       <c r="F182" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G182" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -8912,8 +9479,11 @@
       <c r="F183" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G183" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -8932,8 +9502,11 @@
       <c r="F184" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G184" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -8952,8 +9525,11 @@
       <c r="F185" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G185" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -8972,8 +9548,11 @@
       <c r="F186" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G186" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -8992,8 +9571,11 @@
       <c r="F187" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G187" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -9012,8 +9594,11 @@
       <c r="F188" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G188" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -9032,8 +9617,11 @@
       <c r="F189" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G189" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -9052,8 +9640,11 @@
       <c r="F190" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G190" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -9072,8 +9663,11 @@
       <c r="F191" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G191" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -9092,8 +9686,11 @@
       <c r="F192" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G192" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -9110,8 +9707,11 @@
       <c r="F193" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G193" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -9130,8 +9730,11 @@
       <c r="F194" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G194" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -9148,8 +9751,11 @@
       <c r="F195" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -9168,8 +9774,11 @@
       <c r="F196" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G196" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -9188,8 +9797,11 @@
       <c r="F197" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G197" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -9208,8 +9820,11 @@
       <c r="F198" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G198" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -9228,8 +9843,11 @@
       <c r="F199" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G199" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -9248,8 +9866,11 @@
       <c r="F200" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G200" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -9268,8 +9889,11 @@
       <c r="F201" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G201" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -9288,8 +9912,11 @@
       <c r="F202" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G202" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -9308,8 +9935,11 @@
       <c r="F203" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G203" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -9328,8 +9958,11 @@
       <c r="F204" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G204" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -9348,8 +9981,11 @@
       <c r="F205" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G205" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -9368,8 +10004,11 @@
       <c r="F206" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G206" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -9388,8 +10027,11 @@
       <c r="F207" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G207" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -9408,8 +10050,11 @@
       <c r="F208" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G208" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -9428,8 +10073,11 @@
       <c r="F209" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G209" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -9448,8 +10096,11 @@
       <c r="F210" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G210" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -9468,8 +10119,11 @@
       <c r="F211" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G211" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -9488,8 +10142,11 @@
       <c r="F212" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G212" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -9508,8 +10165,11 @@
       <c r="F213" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G213" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -9528,8 +10188,11 @@
       <c r="F214" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G214" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -9548,8 +10211,11 @@
       <c r="F215" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G215" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -9568,8 +10234,11 @@
       <c r="F216" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G216" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -9588,8 +10257,11 @@
       <c r="F217" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G217" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -9608,8 +10280,11 @@
       <c r="F218" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G218" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -9628,8 +10303,11 @@
       <c r="F219" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G219" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -9646,8 +10324,11 @@
       <c r="F220" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G220" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -9666,8 +10347,11 @@
       <c r="F221" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G221" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -9686,8 +10370,11 @@
       <c r="F222" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G222" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -9706,8 +10393,11 @@
       <c r="F223" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G223" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -9726,8 +10416,11 @@
       <c r="F224" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G224" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -9746,8 +10439,11 @@
       <c r="F225" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G225" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -9766,8 +10462,11 @@
       <c r="F226" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G226" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -9786,8 +10485,11 @@
       <c r="F227" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G227" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -9806,8 +10508,11 @@
       <c r="F228" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G228" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -9826,8 +10531,11 @@
       <c r="F229" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G229" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -9846,8 +10554,11 @@
       <c r="F230" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G230" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -9866,8 +10577,11 @@
       <c r="F231" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G231" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -9886,8 +10600,11 @@
       <c r="F232" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G232" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -9906,8 +10623,11 @@
       <c r="F233" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G233" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -9926,8 +10646,11 @@
       <c r="F234" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G234" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -9946,8 +10669,11 @@
       <c r="F235" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G235" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -9966,8 +10692,11 @@
       <c r="F236" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G236" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -9986,8 +10715,11 @@
       <c r="F237" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G237" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -10006,8 +10738,11 @@
       <c r="F238" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G238" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -10026,8 +10761,11 @@
       <c r="F239" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G239" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -10046,8 +10784,11 @@
       <c r="F240" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G240" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -10066,8 +10807,11 @@
       <c r="F241" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G241" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -10086,8 +10830,11 @@
       <c r="F242" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G242" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -10106,8 +10853,11 @@
       <c r="F243" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G243" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -10126,8 +10876,11 @@
       <c r="F244" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G244" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -10146,8 +10899,11 @@
       <c r="F245" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G245" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -10166,8 +10922,11 @@
       <c r="F246" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G246" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -10186,8 +10945,11 @@
       <c r="F247" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G247" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -10206,8 +10968,11 @@
       <c r="F248" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G248" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -10226,8 +10991,11 @@
       <c r="F249" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G249" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -10246,8 +11014,11 @@
       <c r="F250" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G250" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -10266,8 +11037,11 @@
       <c r="F251" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G251" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -10286,8 +11060,11 @@
       <c r="F252" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G252" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -10306,8 +11083,11 @@
       <c r="F253" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G253" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -10326,8 +11106,11 @@
       <c r="F254" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G254" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -10346,8 +11129,11 @@
       <c r="F255" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G255" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -10366,8 +11152,11 @@
       <c r="F256" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G256" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -10386,8 +11175,11 @@
       <c r="F257" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G257" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -10406,8 +11198,11 @@
       <c r="F258" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G258" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -10426,8 +11221,11 @@
       <c r="F259" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G259" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -10446,8 +11244,11 @@
       <c r="F260" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G260" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -10466,8 +11267,11 @@
       <c r="F261" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G261" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -10486,8 +11290,11 @@
       <c r="F262" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G262" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -10506,8 +11313,11 @@
       <c r="F263" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G263" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -10526,8 +11336,11 @@
       <c r="F264" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G264" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -10546,8 +11359,11 @@
       <c r="F265" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G265" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -10566,8 +11382,11 @@
       <c r="F266" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G266" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -10586,8 +11405,11 @@
       <c r="F267" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G267" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -10606,8 +11428,11 @@
       <c r="F268" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G268" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -10626,8 +11451,11 @@
       <c r="F269" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G269" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -10646,8 +11474,11 @@
       <c r="F270" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G270" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -10666,8 +11497,11 @@
       <c r="F271" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G271" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -10686,8 +11520,11 @@
       <c r="F272" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G272" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -10706,8 +11543,11 @@
       <c r="F273" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G273" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -10726,8 +11566,11 @@
       <c r="F274" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G274" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -10746,8 +11589,11 @@
       <c r="F275" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G275" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -10766,8 +11612,11 @@
       <c r="F276" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G276" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -10786,8 +11635,11 @@
       <c r="F277" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G277" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -10806,8 +11658,11 @@
       <c r="F278" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G278" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -10826,8 +11681,11 @@
       <c r="F279" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G279" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -10846,8 +11704,11 @@
       <c r="F280" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G280" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -10866,8 +11727,11 @@
       <c r="F281" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G281" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -10886,8 +11750,11 @@
       <c r="F282" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G282" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -10906,8 +11773,11 @@
       <c r="F283" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G283" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -10926,8 +11796,11 @@
       <c r="F284" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G284" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -10946,8 +11819,11 @@
       <c r="F285" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G285" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -10966,8 +11842,11 @@
       <c r="F286" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G286" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -10986,8 +11865,11 @@
       <c r="F287" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G287" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -11006,8 +11888,11 @@
       <c r="F288" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G288" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -11026,8 +11911,11 @@
       <c r="F289" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G289" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -11046,8 +11934,11 @@
       <c r="F290" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G290" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -11066,8 +11957,11 @@
       <c r="F291" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G291" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -11086,8 +11980,11 @@
       <c r="F292" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G292" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -11106,8 +12003,11 @@
       <c r="F293" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G293" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -11126,8 +12026,11 @@
       <c r="F294" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G294" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -11146,8 +12049,11 @@
       <c r="F295" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G295" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -11166,8 +12072,11 @@
       <c r="F296" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G296" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -11186,8 +12095,11 @@
       <c r="F297" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G297" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -11206,8 +12118,11 @@
       <c r="F298" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G298" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -11226,8 +12141,11 @@
       <c r="F299" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G299" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -11246,8 +12164,11 @@
       <c r="F300" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G300" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -11266,8 +12187,11 @@
       <c r="F301" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G301" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -11286,8 +12210,11 @@
       <c r="F302" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G302" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -11306,8 +12233,11 @@
       <c r="F303" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G303" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -11326,8 +12256,11 @@
       <c r="F304" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G304" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -11346,8 +12279,11 @@
       <c r="F305" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G305" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -11366,8 +12302,11 @@
       <c r="F306" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G306" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -11386,8 +12325,11 @@
       <c r="F307" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G307" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -11406,8 +12348,11 @@
       <c r="F308" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G308" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -11426,8 +12371,11 @@
       <c r="F309" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G309" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -11446,8 +12394,11 @@
       <c r="F310" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G310" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -11466,8 +12417,11 @@
       <c r="F311" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G311" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -11486,8 +12440,11 @@
       <c r="F312" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G312" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -11506,8 +12463,11 @@
       <c r="F313" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G313" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -11526,8 +12486,11 @@
       <c r="F314" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G314" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -11546,8 +12509,11 @@
       <c r="F315" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G315" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -11566,8 +12532,11 @@
       <c r="F316" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G316" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -11586,8 +12555,11 @@
       <c r="F317" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G317" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -11606,8 +12578,11 @@
       <c r="F318" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G318" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -11626,8 +12601,11 @@
       <c r="F319" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G319" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -11646,8 +12624,11 @@
       <c r="F320" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G320" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -11666,8 +12647,11 @@
       <c r="F321" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G321" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -11686,8 +12670,11 @@
       <c r="F322" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G322" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -11706,8 +12693,11 @@
       <c r="F323" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G323" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -11726,8 +12716,11 @@
       <c r="F324" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G324" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -11746,8 +12739,11 @@
       <c r="F325" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G325" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -11766,8 +12762,11 @@
       <c r="F326" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G326" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -11786,8 +12785,11 @@
       <c r="F327" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G327" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -11806,8 +12808,11 @@
       <c r="F328" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G328" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -11826,8 +12831,11 @@
       <c r="F329" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G329" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -11846,8 +12854,11 @@
       <c r="F330" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G330" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -11866,8 +12877,11 @@
       <c r="F331" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G331" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -11886,8 +12900,11 @@
       <c r="F332" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G332" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -11906,8 +12923,11 @@
       <c r="F333" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G333" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -11926,8 +12946,11 @@
       <c r="F334" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G334" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -11946,8 +12969,11 @@
       <c r="F335" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G335" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -11966,8 +12992,11 @@
       <c r="F336" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G336" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -11986,8 +13015,11 @@
       <c r="F337" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G337" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -12006,8 +13038,11 @@
       <c r="F338" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G338" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -12026,8 +13061,11 @@
       <c r="F339" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G339" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -12046,8 +13084,11 @@
       <c r="F340" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G340" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -12066,8 +13107,11 @@
       <c r="F341" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G341" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -12086,8 +13130,11 @@
       <c r="F342" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G342" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -12106,8 +13153,11 @@
       <c r="F343" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G343" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -12126,8 +13176,11 @@
       <c r="F344" s="2" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G344" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -12146,8 +13199,11 @@
       <c r="F345" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G345" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -12164,8 +13220,11 @@
       <c r="F346" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G346" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -12182,8 +13241,11 @@
       <c r="F347" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G347" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -12200,8 +13262,11 @@
       <c r="F348" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G348" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -12218,8 +13283,11 @@
       <c r="F349" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G349" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -12236,8 +13304,11 @@
       <c r="F350" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G350" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -12254,8 +13325,11 @@
       <c r="F351" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G351" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -12272,8 +13346,11 @@
       <c r="F352" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G352" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -12290,8 +13367,11 @@
       <c r="F353" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G353" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -12308,8 +13388,11 @@
       <c r="F354" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G354" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -12328,8 +13411,11 @@
       <c r="F355" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G355" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -12348,8 +13434,11 @@
       <c r="F356" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G356" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -12368,8 +13457,11 @@
       <c r="F357" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G357" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -12388,8 +13480,11 @@
       <c r="F358" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G358" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -12406,8 +13501,11 @@
       <c r="F359" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G359" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -12426,8 +13524,11 @@
       <c r="F360" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G360" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -12446,8 +13547,11 @@
       <c r="F361" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G361" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -12466,8 +13570,11 @@
       <c r="F362" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G362" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -12486,8 +13593,11 @@
       <c r="F363" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G363" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -12506,8 +13616,11 @@
       <c r="F364" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G364" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -12526,8 +13639,11 @@
       <c r="F365" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G365" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -12546,8 +13662,11 @@
       <c r="F366" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G366" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -12564,8 +13683,11 @@
       <c r="F367" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G367" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -12582,8 +13704,11 @@
       <c r="F368" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G368" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -12602,8 +13727,11 @@
       <c r="F369" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G369" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -12622,8 +13750,11 @@
       <c r="F370" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G370" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -12640,8 +13771,11 @@
       <c r="F371" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G371" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -12660,8 +13794,11 @@
       <c r="F372" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G372" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -12680,8 +13817,11 @@
       <c r="F373" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G373" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -12698,8 +13838,11 @@
       <c r="F374" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G374" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -12718,8 +13861,11 @@
       <c r="F375" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G375" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -12738,8 +13884,11 @@
       <c r="F376" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G376" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -12758,8 +13907,11 @@
       <c r="F377" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G377" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -12778,8 +13930,11 @@
       <c r="F378" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G378" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -12798,8 +13953,11 @@
       <c r="F379" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G379" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -12818,8 +13976,11 @@
       <c r="F380" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G380" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -12838,8 +13999,11 @@
       <c r="F381" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G381" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -12858,8 +14022,11 @@
       <c r="F382" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G382" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -12878,8 +14045,11 @@
       <c r="F383" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G383" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -12898,8 +14068,11 @@
       <c r="F384" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G384" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -12918,8 +14091,11 @@
       <c r="F385" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G385" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -12936,8 +14112,11 @@
       <c r="F386" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G386" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -12954,8 +14133,11 @@
       <c r="F387" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G387" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -12974,8 +14156,11 @@
       <c r="F388" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G388" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -12994,8 +14179,11 @@
       <c r="F389" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G389" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -13014,8 +14202,11 @@
       <c r="F390" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G390" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -13034,8 +14225,11 @@
       <c r="F391" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G391" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -13054,8 +14248,11 @@
       <c r="F392" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G392" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -13074,8 +14271,11 @@
       <c r="F393" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G393" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -13094,8 +14294,11 @@
       <c r="F394" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G394" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -13114,8 +14317,11 @@
       <c r="F395" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G395" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -13134,8 +14340,11 @@
       <c r="F396" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G396" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -13154,8 +14363,11 @@
       <c r="F397" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G397" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -13174,8 +14386,11 @@
       <c r="F398" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G398" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -13194,8 +14409,11 @@
       <c r="F399" s="2" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G399" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -13214,8 +14432,11 @@
       <c r="F400" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G400" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -13234,8 +14455,11 @@
       <c r="F401" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G401" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -13254,8 +14478,11 @@
       <c r="F402" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G402" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -13274,8 +14501,11 @@
       <c r="F403" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G403" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -13294,8 +14524,11 @@
       <c r="F404" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G404" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -13314,8 +14547,11 @@
       <c r="F405" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G405" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -13334,8 +14570,11 @@
       <c r="F406" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G406" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -13354,8 +14593,11 @@
       <c r="F407" s="2" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G407" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -13374,8 +14616,11 @@
       <c r="F408" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G408" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -13394,8 +14639,11 @@
       <c r="F409" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G409" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -13414,8 +14662,11 @@
       <c r="F410" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G410" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -13434,8 +14685,11 @@
       <c r="F411" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G411" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -13454,8 +14708,11 @@
       <c r="F412" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G412" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -13474,8 +14731,11 @@
       <c r="F413" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G413" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -13494,8 +14754,11 @@
       <c r="F414" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G414" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -13514,8 +14777,11 @@
       <c r="F415" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G415" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -13534,8 +14800,11 @@
       <c r="F416" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G416" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -13554,8 +14823,11 @@
       <c r="F417" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G417" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -13574,8 +14846,11 @@
       <c r="F418" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G418" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -13594,8 +14869,11 @@
       <c r="F419" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G419" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -13614,8 +14892,11 @@
       <c r="F420" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G420" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -13634,8 +14915,11 @@
       <c r="F421" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G421" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -13654,8 +14938,11 @@
       <c r="F422" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G422" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -13674,8 +14961,11 @@
       <c r="F423" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G423" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -13694,8 +14984,11 @@
       <c r="F424" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G424" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -13714,8 +15007,11 @@
       <c r="F425" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G425" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -13734,8 +15030,11 @@
       <c r="F426" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G426" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -13754,8 +15053,11 @@
       <c r="F427" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G427" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -13774,8 +15076,11 @@
       <c r="F428" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G428" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -13794,8 +15099,11 @@
       <c r="F429" s="2" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G429" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -13814,8 +15122,11 @@
       <c r="F430" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G430" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -13834,8 +15145,11 @@
       <c r="F431" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G431" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -13852,8 +15166,11 @@
       <c r="F432" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G432" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -13870,8 +15187,11 @@
       <c r="F433" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G433" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -13890,8 +15210,11 @@
       <c r="F434" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G434" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -13910,8 +15233,11 @@
       <c r="F435" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G435" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -13930,8 +15256,11 @@
       <c r="F436" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G436" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -13948,8 +15277,11 @@
       <c r="F437" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G437" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -13968,8 +15300,11 @@
       <c r="F438" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G438" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -13988,8 +15323,11 @@
       <c r="F439" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G439" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -14006,8 +15344,11 @@
       <c r="F440" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G440" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -14023,8 +15364,11 @@
       <c r="F441" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G441" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -14041,8 +15385,11 @@
       <c r="F442" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G442" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -14061,8 +15408,11 @@
       <c r="F443" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G443" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -14081,8 +15431,11 @@
       <c r="F444" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G444" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -14099,8 +15452,11 @@
       <c r="F445" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G445" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -14117,8 +15473,11 @@
       <c r="F446" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G446" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -14135,8 +15494,11 @@
       <c r="F447" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G447" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -14155,8 +15517,11 @@
       <c r="F448" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G448" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -14175,8 +15540,11 @@
       <c r="F449" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G449" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -14195,8 +15563,11 @@
       <c r="F450" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G450" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -14213,8 +15584,11 @@
       <c r="F451" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G451" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -14231,8 +15605,11 @@
       <c r="F452" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G452" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -14249,8 +15626,11 @@
       <c r="F453" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G453" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -14269,8 +15649,11 @@
       <c r="F454" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G454" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -14287,8 +15670,11 @@
       <c r="F455" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G455" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -14305,8 +15691,11 @@
       <c r="F456" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G456" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -14325,8 +15714,11 @@
       <c r="F457" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G457" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -14345,8 +15737,11 @@
       <c r="F458" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G458" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -14363,8 +15758,11 @@
       <c r="F459" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G459" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -14383,8 +15781,11 @@
       <c r="F460" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G460" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -14403,8 +15804,11 @@
       <c r="F461" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G461" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -14423,8 +15827,11 @@
       <c r="F462" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G462" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -14443,8 +15850,11 @@
       <c r="F463" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G463" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -14463,8 +15873,11 @@
       <c r="F464" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G464" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -14483,8 +15896,11 @@
       <c r="F465" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G465" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -14503,8 +15919,11 @@
       <c r="F466" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G466" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -14523,8 +15942,11 @@
       <c r="F467" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G467" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -14541,8 +15963,11 @@
       <c r="F468" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G468" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -14559,8 +15984,11 @@
       <c r="F469" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G469" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -14577,8 +16005,11 @@
       <c r="F470" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G470" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -14595,8 +16026,11 @@
       <c r="F471" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G471" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -14613,8 +16047,11 @@
       <c r="F472" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G472" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -14633,8 +16070,11 @@
       <c r="F473" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G473" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -14653,8 +16093,11 @@
       <c r="F474" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G474" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -14673,8 +16116,11 @@
       <c r="F475" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G475" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -14693,8 +16139,11 @@
       <c r="F476" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G476" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -14713,8 +16162,11 @@
       <c r="F477" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G477" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -14733,8 +16185,11 @@
       <c r="F478" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G478" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -14753,8 +16208,11 @@
       <c r="F479" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G479" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -14773,8 +16231,11 @@
       <c r="F480" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G480" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -14793,8 +16254,11 @@
       <c r="F481" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G481" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -14813,8 +16277,11 @@
       <c r="F482" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G482" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -14833,8 +16300,11 @@
       <c r="F483" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G483" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -14851,8 +16321,11 @@
       <c r="F484" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G484" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -14869,8 +16342,11 @@
       <c r="F485" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G485" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -14889,8 +16365,11 @@
       <c r="F486" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G486" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -14909,8 +16388,11 @@
       <c r="F487" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G487" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -14929,8 +16411,11 @@
       <c r="F488" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G488" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -14949,8 +16434,11 @@
       <c r="F489" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G489" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -14969,8 +16457,11 @@
       <c r="F490" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G490" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -14989,8 +16480,11 @@
       <c r="F491" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G491" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -15009,8 +16503,11 @@
       <c r="F492" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G492" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -15029,8 +16526,11 @@
       <c r="F493" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G493" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -15049,8 +16549,11 @@
       <c r="F494" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G494" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -15067,8 +16570,11 @@
       <c r="F495" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G495" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -15087,8 +16593,11 @@
       <c r="F496" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G496" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -15107,8 +16616,11 @@
       <c r="F497" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G497" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -15127,8 +16639,11 @@
       <c r="F498" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G498" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -15147,8 +16662,11 @@
       <c r="F499" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G499" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -15167,8 +16685,11 @@
       <c r="F500" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G500" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -15187,8 +16708,11 @@
       <c r="F501" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G501" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -15207,8 +16731,11 @@
       <c r="F502" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G502" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -15227,8 +16754,11 @@
       <c r="F503" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G503" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -15247,8 +16777,11 @@
       <c r="F504" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G504" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -15267,8 +16800,11 @@
       <c r="F505" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G505" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -15287,8 +16823,11 @@
       <c r="F506" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G506" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -15307,8 +16846,11 @@
       <c r="F507" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G507" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -15327,8 +16869,11 @@
       <c r="F508" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G508" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -15347,8 +16892,11 @@
       <c r="F509" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G509" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -15367,8 +16915,11 @@
       <c r="F510" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G510" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -15387,8 +16938,11 @@
       <c r="F511" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G511" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -15407,8 +16961,11 @@
       <c r="F512" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G512" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -15427,8 +16984,11 @@
       <c r="F513" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G513" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -15447,8 +17007,11 @@
       <c r="F514" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G514" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -15467,8 +17030,11 @@
       <c r="F515" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G515" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -15487,8 +17053,11 @@
       <c r="F516" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G516" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -15507,8 +17076,11 @@
       <c r="F517" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G517" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -15527,8 +17099,11 @@
       <c r="F518" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G518" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -15547,8 +17122,11 @@
       <c r="F519" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G519" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -15567,8 +17145,11 @@
       <c r="F520" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G520" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -15587,8 +17168,11 @@
       <c r="F521" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G521" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -15607,8 +17191,11 @@
       <c r="F522" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G522" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -15627,8 +17214,11 @@
       <c r="F523" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G523" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -15645,8 +17235,11 @@
       <c r="F524" s="2" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G524" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -15665,8 +17258,11 @@
       <c r="F525" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G525" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -15685,8 +17281,11 @@
       <c r="F526" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G526" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -15705,8 +17304,11 @@
       <c r="F527" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G527" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -15725,8 +17327,11 @@
       <c r="F528" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G528" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -15745,8 +17350,11 @@
       <c r="F529" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G529" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -15765,8 +17373,11 @@
       <c r="F530" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G530" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -15785,8 +17396,11 @@
       <c r="F531" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G531" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -15805,8 +17419,11 @@
       <c r="F532" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G532" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -15825,8 +17442,11 @@
       <c r="F533" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G533" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -15845,8 +17465,11 @@
       <c r="F534" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G534" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -15865,8 +17488,11 @@
       <c r="F535" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G535" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -15885,8 +17511,11 @@
       <c r="F536" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G536" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -15905,8 +17534,11 @@
       <c r="F537" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G537" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -15925,8 +17557,11 @@
       <c r="F538" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G538" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -15945,8 +17580,11 @@
       <c r="F539" s="2" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G539" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -15965,8 +17603,11 @@
       <c r="F540" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G540" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -15985,8 +17626,11 @@
       <c r="F541" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G541" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -16005,8 +17649,11 @@
       <c r="F542" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G542" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -16025,8 +17672,11 @@
       <c r="F543" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G543" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -16045,8 +17695,11 @@
       <c r="F544" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G544" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -16065,8 +17718,11 @@
       <c r="F545" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G545" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -16085,8 +17741,11 @@
       <c r="F546" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G546" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -16105,8 +17764,11 @@
       <c r="F547" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G547" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -16125,8 +17787,11 @@
       <c r="F548" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G548" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -16145,8 +17810,11 @@
       <c r="F549" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G549" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -16165,8 +17833,11 @@
       <c r="F550" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G550" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -16185,8 +17856,11 @@
       <c r="F551" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G551" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -16205,8 +17879,11 @@
       <c r="F552" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G552" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -16225,8 +17902,11 @@
       <c r="F553" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G553" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -16245,8 +17925,11 @@
       <c r="F554" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G554" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -16265,8 +17948,11 @@
       <c r="F555" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G555" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -16283,8 +17969,11 @@
       <c r="F556" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G556" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -16303,8 +17992,11 @@
       <c r="F557" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G557" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -16323,8 +18015,11 @@
       <c r="F558" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G558" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -16343,8 +18038,11 @@
       <c r="F559" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G559" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -16363,8 +18061,11 @@
       <c r="F560" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G560" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -16383,8 +18084,11 @@
       <c r="F561" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G561" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -16403,8 +18107,11 @@
       <c r="F562" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G562" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -16423,8 +18130,11 @@
       <c r="F563" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G563" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -16443,8 +18153,11 @@
       <c r="F564" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G564" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -16463,8 +18176,11 @@
       <c r="F565" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G565" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -16483,8 +18199,11 @@
       <c r="F566" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G566" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -16503,8 +18222,11 @@
       <c r="F567" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G567" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -16523,8 +18245,11 @@
       <c r="F568" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G568" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -16543,8 +18268,11 @@
       <c r="F569" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G569" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -16563,8 +18291,11 @@
       <c r="F570" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G570" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -16581,8 +18312,11 @@
       <c r="F571" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G571" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -16601,8 +18335,11 @@
       <c r="F572" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G572" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -16621,8 +18358,11 @@
       <c r="F573" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G573" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -16641,8 +18381,11 @@
       <c r="F574" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G574" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -16661,8 +18404,11 @@
       <c r="F575" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G575" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -16680,6 +18426,9 @@
       </c>
       <c r="F576" s="5" t="s">
         <v>1476</v>
+      </c>
+      <c r="G576" s="9" t="s">
+        <v>1582</v>
       </c>
     </row>
   </sheetData>
@@ -16693,7 +18442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16705,7 +18454,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
